--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Icam5-Itgb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Icam5-Itgb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>Itgb2</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,46 +531,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.064164333333333</v>
+        <v>0.1421496666666667</v>
       </c>
       <c r="H2">
-        <v>6.192493</v>
+        <v>0.426449</v>
       </c>
       <c r="I2">
-        <v>0.6667582237734649</v>
+        <v>0.1211014306728536</v>
       </c>
       <c r="J2">
-        <v>0.6667582237734649</v>
+        <v>0.1211014306728536</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>76.13138833333333</v>
+        <v>0.05619066666666667</v>
       </c>
       <c r="N2">
-        <v>228.394165</v>
+        <v>0.168572</v>
       </c>
       <c r="O2">
-        <v>0.9985083984418027</v>
+        <v>0.3931387525216601</v>
       </c>
       <c r="P2">
-        <v>0.9985083984418027</v>
+        <v>0.39313875252166</v>
       </c>
       <c r="Q2">
-        <v>157.1476964448161</v>
+        <v>0.007987484536444446</v>
       </c>
       <c r="R2">
-        <v>1414.329268003345</v>
+        <v>0.071887360828</v>
       </c>
       <c r="S2">
-        <v>0.6657636861679436</v>
+        <v>0.04760966538331396</v>
       </c>
       <c r="T2">
-        <v>0.6657636861679436</v>
+        <v>0.04760966538331395</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +593,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.064164333333333</v>
+        <v>0.1421496666666667</v>
       </c>
       <c r="H3">
-        <v>6.192493</v>
+        <v>0.426449</v>
       </c>
       <c r="I3">
-        <v>0.6667582237734649</v>
+        <v>0.1211014306728536</v>
       </c>
       <c r="J3">
-        <v>0.6667582237734649</v>
+        <v>0.1211014306728536</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,27 +617,27 @@
         <v>0.260213</v>
       </c>
       <c r="O3">
-        <v>0.001137616041476965</v>
+        <v>0.60686124747834</v>
       </c>
       <c r="P3">
-        <v>0.001137616041476965</v>
+        <v>0.60686124747834</v>
       </c>
       <c r="Q3">
-        <v>0.1790407978898889</v>
+        <v>0.01232973040411111</v>
       </c>
       <c r="R3">
-        <v>1.611367181009</v>
+        <v>0.110967573637</v>
       </c>
       <c r="S3">
-        <v>0.0007585148511513818</v>
+        <v>0.07349176528953963</v>
       </c>
       <c r="T3">
-        <v>0.0007585148511513818</v>
+        <v>0.07349176528953963</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -649,55 +646,55 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1.031657</v>
+      </c>
+      <c r="H4">
+        <v>3.094971</v>
+      </c>
+      <c r="I4">
+        <v>0.8788985693271465</v>
+      </c>
+      <c r="J4">
+        <v>0.8788985693271465</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G4">
-        <v>2.064164333333333</v>
-      </c>
-      <c r="H4">
-        <v>6.192493</v>
-      </c>
-      <c r="I4">
-        <v>0.6667582237734649</v>
-      </c>
-      <c r="J4">
-        <v>0.6667582237734649</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M4">
-        <v>0.02698966666666667</v>
+        <v>0.05619066666666667</v>
       </c>
       <c r="N4">
-        <v>0.080969</v>
+        <v>0.168572</v>
       </c>
       <c r="O4">
-        <v>0.0003539855167203345</v>
+        <v>0.3931387525216601</v>
       </c>
       <c r="P4">
-        <v>0.0003539855167203345</v>
+        <v>0.39313875252166</v>
       </c>
       <c r="Q4">
-        <v>0.05571110730188888</v>
+        <v>0.05796949460133333</v>
       </c>
       <c r="R4">
-        <v>0.501399965717</v>
+        <v>0.521725451412</v>
       </c>
       <c r="S4">
-        <v>0.0002360227543699824</v>
+        <v>0.3455290871383462</v>
       </c>
       <c r="T4">
-        <v>0.0002360227543699824</v>
+        <v>0.3455290871383461</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +708,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,164 +723,40 @@
         <v>3.094971</v>
       </c>
       <c r="I5">
-        <v>0.333241776226535</v>
+        <v>0.8788985693271465</v>
       </c>
       <c r="J5">
-        <v>0.333241776226535</v>
+        <v>0.8788985693271465</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>76.13138833333333</v>
+        <v>0.08673766666666667</v>
       </c>
       <c r="N5">
-        <v>228.394165</v>
+        <v>0.260213</v>
       </c>
       <c r="O5">
-        <v>0.9985083984418027</v>
+        <v>0.60686124747834</v>
       </c>
       <c r="P5">
-        <v>0.9985083984418027</v>
+        <v>0.60686124747834</v>
       </c>
       <c r="Q5">
-        <v>78.54147969380165</v>
+        <v>0.08948352098033334</v>
       </c>
       <c r="R5">
-        <v>706.8733172442149</v>
+        <v>0.8053516888230001</v>
       </c>
       <c r="S5">
-        <v>0.3327447122738591</v>
+        <v>0.5333694821888004</v>
       </c>
       <c r="T5">
-        <v>0.3327447122738591</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1.031657</v>
-      </c>
-      <c r="H6">
-        <v>3.094971</v>
-      </c>
-      <c r="I6">
-        <v>0.333241776226535</v>
-      </c>
-      <c r="J6">
-        <v>0.333241776226535</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M6">
-        <v>0.08673766666666667</v>
-      </c>
-      <c r="N6">
-        <v>0.260213</v>
-      </c>
-      <c r="O6">
-        <v>0.001137616041476965</v>
-      </c>
-      <c r="P6">
-        <v>0.001137616041476965</v>
-      </c>
-      <c r="Q6">
-        <v>0.08948352098033333</v>
-      </c>
-      <c r="R6">
-        <v>0.805351688823</v>
-      </c>
-      <c r="S6">
-        <v>0.0003791011903255834</v>
-      </c>
-      <c r="T6">
-        <v>0.0003791011903255834</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.031657</v>
-      </c>
-      <c r="H7">
-        <v>3.094971</v>
-      </c>
-      <c r="I7">
-        <v>0.333241776226535</v>
-      </c>
-      <c r="J7">
-        <v>0.333241776226535</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.02698966666666667</v>
-      </c>
-      <c r="N7">
-        <v>0.080969</v>
-      </c>
-      <c r="O7">
-        <v>0.0003539855167203345</v>
-      </c>
-      <c r="P7">
-        <v>0.0003539855167203345</v>
-      </c>
-      <c r="Q7">
-        <v>0.02784407854433333</v>
-      </c>
-      <c r="R7">
-        <v>0.250596706899</v>
-      </c>
-      <c r="S7">
-        <v>0.0001179627623503521</v>
-      </c>
-      <c r="T7">
-        <v>0.0001179627623503521</v>
+        <v>0.5333694821888004</v>
       </c>
     </row>
   </sheetData>
